--- a/LabFizyka/cw3 cw0 fizyka exel.xlsx
+++ b/LabFizyka/cw3 cw0 fizyka exel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SzaVii\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47CE9F-3C7C-420D-88B6-EFF003FF7D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B37D3C-8AFF-49C2-ACCF-6C61E92049AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -148,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,13 +505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92D228-16DA-4A97-8A8D-61BC4EC06C75}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -539,7 +528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>1</v>
       </c>
@@ -562,7 +551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>2</v>
       </c>
@@ -586,7 +575,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>3</v>
       </c>
@@ -606,7 +595,7 @@
         <v>7.2900000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>4</v>
       </c>
@@ -626,7 +615,7 @@
         <v>8.99999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>5</v>
       </c>
@@ -646,7 +635,7 @@
         <v>5.2899999999999991</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>6</v>
       </c>
@@ -666,7 +655,7 @@
         <v>0.49000000000000027</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>7</v>
       </c>
@@ -686,7 +675,7 @@
         <v>1.6899999999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>8</v>
       </c>
@@ -706,7 +695,7 @@
         <v>5.2899999999999991</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>9</v>
       </c>
@@ -726,7 +715,7 @@
         <v>7.2900000000000009</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>10</v>
       </c>
@@ -746,7 +735,7 @@
         <v>8.99999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -755,7 +744,7 @@
         <v>28.099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -764,22 +753,22 @@
         <v>0.55876848714134031</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>0.99</v>
       </c>
@@ -788,7 +777,7 @@
         <v>1.815997583209356</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -797,12 +786,12 @@
         <v>1.2583466330422983</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -820,16 +809,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE779AC8-B3A6-4CB4-89D8-06BD14FA60F5}">
   <dimension ref="E5:Y33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -861,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -896,706 +885,454 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N7" t="e">
+    <row r="7" spans="5:25">
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.155</v>
+      </c>
+      <c r="H7">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I7">
+        <v>1.387</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0.3</v>
+      </c>
+      <c r="L7">
+        <v>21.3</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7">
         <f>S7-T7</f>
-        <v>#DIV/0!</v>
+        <v>11013.890322580615</v>
       </c>
       <c r="Q7">
         <f>PRODUCT(H7,I7,M7)</f>
-        <v>0</v>
+        <v>590.44590000000005</v>
       </c>
       <c r="R7">
         <f>G7*(L7-J7)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" t="e">
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S7">
         <f>Q7/R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>12697.761290322551</v>
+      </c>
+      <c r="T7">
         <f>(F7*E7)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U7">
         <f>S7-T7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>11013.890322580615</v>
+      </c>
+      <c r="Y7">
         <f>(N7-$E$33)^2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N8" t="e">
-        <f t="shared" ref="N8:N28" si="0">S8-T8</f>
-        <v>#DIV/0!</v>
+        <v>30555608.581911124</v>
+      </c>
+    </row>
+    <row r="8" spans="5:25">
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.155</v>
+      </c>
+      <c r="H8">
+        <v>4.8</v>
+      </c>
+      <c r="I8">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="J8">
+        <v>21.3</v>
+      </c>
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+      <c r="L8">
+        <v>21.6</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <f>S8-T8</f>
+        <v>7682.8387096773968</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q28" si="1">PRODUCT(H8,I8,M8)</f>
-        <v>0</v>
+        <f t="shared" ref="Q8:Q28" si="0">PRODUCT(H8,I8,M8)</f>
+        <v>435.55199999999996</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R28" si="2">G8*(L8-J8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" t="e">
-        <f t="shared" ref="S8:S28" si="3">Q8/R8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" t="e">
-        <f t="shared" ref="T8:T28" si="4">(F8*E8)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" t="e">
-        <f t="shared" ref="U8:U28" si="5">S8-T8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" t="e">
-        <f t="shared" ref="Y8:Y28" si="6">(N8-$E$33)^2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N9" t="e">
+        <f t="shared" ref="R8:R28" si="1">G8*(L8-J8)</f>
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S28" si="2">Q8/R8</f>
+        <v>9366.7096774193324</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T28" si="3">(F8*E8)/G8</f>
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U28" si="4">S8-T8</f>
+        <v>7682.8387096773968</v>
+      </c>
+      <c r="Y8">
+        <f>(N8-$E$33)^2</f>
+        <v>4825320.2845155653</v>
+      </c>
+    </row>
+    <row r="9" spans="5:25">
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.155</v>
+      </c>
+      <c r="H9">
+        <v>4.72</v>
+      </c>
+      <c r="I9">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="J9">
+        <v>21.6</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>21.9</v>
+      </c>
+      <c r="M9">
+        <v>52</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N8:N28" si="5">S9-T9</f>
+        <v>5631.8245161290997</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9">
+        <v>340.17983999999996</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
+        <v>4.6499999999999563E-2</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" t="e">
+        <v>7315.6954838710353</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" t="e">
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" t="e">
+        <v>5631.8245161290997</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y8:Y28" si="6">(N9-$E$33)^2</f>
+        <v>21213.041002265622</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25">
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.155</v>
+      </c>
+      <c r="H10">
+        <v>4.71</v>
+      </c>
+      <c r="I10">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="J10">
+        <v>21.9</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="L10">
+        <v>22.2</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9" t="e">
+        <v>4615.3741935483713</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>292.91489999999999</v>
+      </c>
+      <c r="R10">
+        <f>G10*(L10-J10)</f>
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>6299.2451612903069</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>4615.3741935483713</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N10" t="e">
+        <v>758298.47209725645</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.155</v>
+      </c>
+      <c r="H11">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I11">
+        <v>1.385</v>
+      </c>
+      <c r="J11">
+        <v>22.2</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>22.5</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>2401.7301075268724</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10">
+        <v>189.98045000000002</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" t="e">
+        <v>4085.601075268808</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" t="e">
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
+        <v>2401.7301075268724</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>9513815.9775250498</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
+      <c r="E12">
+        <v>900</v>
+      </c>
+      <c r="F12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.155</v>
+      </c>
+      <c r="H12">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I12">
+        <v>1.385</v>
+      </c>
+      <c r="J12">
+        <v>22.5</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+      <c r="L12">
+        <v>22.8</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" t="e">
+        <v>4233.2064516128894</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>275.14410000000004</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>5917.077419354825</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>4233.2064516128894</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N11" t="e">
+        <v>1569936.5539540569</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
+      <c r="E13">
+        <v>900</v>
+      </c>
+      <c r="F13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.155</v>
+      </c>
+      <c r="H13">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I13">
+        <v>1.385</v>
+      </c>
+      <c r="J13">
+        <v>22.8</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>23.1</v>
+      </c>
+      <c r="M13">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>2824.3784946236456</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11">
+        <v>209.63360000000003</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
+        <v>4.6500000000000111E-2</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" t="e">
+        <v>4508.2494623655812</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>1683.8709677419356</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>2824.3784946236456</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y15" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y17" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y19" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y20" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S24" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S27" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="N28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+        <v>7085174.1699057044</v>
+      </c>
+    </row>
+    <row r="28" spans="5:25">
+      <c r="Y28">
+        <f>(N28-$E$33)^2</f>
+        <v>30098144.025008153</v>
+      </c>
+    </row>
+    <row r="29" spans="5:25">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="P30" t="e">
+    <row r="30" spans="5:25">
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="P30">
         <f>1/(L30*(L30-1))</f>
-        <v>#DIV/0!</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="Y30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Y31" t="e">
+    <row r="31" spans="5:25">
+      <c r="Y31">
         <f>SUM(Y7:Y28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
+        <v>84427511.105919182</v>
+      </c>
+    </row>
+    <row r="32" spans="5:25">
       <c r="E32" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" t="e">
+      <c r="Q32">
         <f>P30*Y31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="e">
+        <v>2010178.8358552186</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33">
         <f>AVERAGE(N7:N28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" t="e">
+        <v>5486.1775422426999</v>
+      </c>
+      <c r="F33">
         <f>SQRT(Q32)</f>
-        <v>#DIV/0!</v>
+        <v>1417.8077570161684</v>
       </c>
     </row>
   </sheetData>
